--- a/docs/timesheet_Bjorn_Truye.xlsx
+++ b/docs/timesheet_Bjorn_Truye.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="16020" tabRatio="500"/>
+    <workbookView xWindow="28800" yWindow="-2160" windowWidth="16760" windowHeight="21000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Datum</t>
   </si>
@@ -77,9 +77,6 @@
     <t>Toevoegen custom single smaak + stijlen</t>
   </si>
   <si>
-    <t>Dossier afwerken, timesheet aanvullen</t>
-  </si>
-  <si>
     <t>Custom WordPress login</t>
   </si>
   <si>
@@ -93,6 +90,18 @@
   </si>
   <si>
     <t>Widgets toevoegen (twitter)</t>
+  </si>
+  <si>
+    <t>Samengewerkt met Arno, GitHub, GitLab en Pantheon in orde gebracht, Wordpress van content voorzien, kleine aanpassingen samen doornomen</t>
+  </si>
+  <si>
+    <t>Door een db te importeren is de volledige wordpress database corrupt geworden en omdat we geen backup hadden moesten we alles weer terug toevoegen zoals de headers, pages, comments, articles, roles etc + finishing touches</t>
+  </si>
+  <si>
+    <t>Alles doornomen, kleine aanpassingen, alle repos in orde gebracht, timesheets aangevuld en dossier in orde gebracht.</t>
+  </si>
+  <si>
+    <t>Dossier afwerken, timesheets aanvullen</t>
   </si>
 </sst>
 </file>
@@ -128,9 +137,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Stand." xfId="0" builtinId="0"/>
@@ -408,15 +420,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="108.6640625" customWidth="1"/>
+    <col min="3" max="3" width="185.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -434,7 +446,7 @@
       <c r="A2" s="1">
         <v>42858</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>2</v>
       </c>
       <c r="C2" t="s">
@@ -445,7 +457,7 @@
       <c r="A3" s="1">
         <v>42859</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3" t="s">
@@ -456,12 +468,13 @@
       <c r="A4" s="1">
         <v>42860</v>
       </c>
+      <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>42861</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>4</v>
       </c>
       <c r="C5" t="s">
@@ -472,7 +485,7 @@
       <c r="A6" s="1">
         <v>42862</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>2</v>
       </c>
       <c r="C6" t="s">
@@ -483,7 +496,7 @@
       <c r="A7" s="1">
         <v>42863</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>2</v>
       </c>
       <c r="C7" t="s">
@@ -494,7 +507,7 @@
       <c r="A8" s="1">
         <v>42864</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>1.5</v>
       </c>
       <c r="C8" t="s">
@@ -505,12 +518,13 @@
       <c r="A9" s="1">
         <v>42865</v>
       </c>
+      <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>42866</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>1</v>
       </c>
       <c r="C10" t="s">
@@ -521,12 +535,13 @@
       <c r="A11" s="1">
         <v>42867</v>
       </c>
+      <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>42868</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>1</v>
       </c>
       <c r="C12" t="s">
@@ -537,12 +552,13 @@
       <c r="A13" s="1">
         <v>42869</v>
       </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>42870</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>3</v>
       </c>
       <c r="C14" t="s">
@@ -553,7 +569,7 @@
       <c r="A15" s="1">
         <v>42871</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>1</v>
       </c>
       <c r="C15" t="s">
@@ -564,18 +580,18 @@
       <c r="A16" s="1">
         <v>42872</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>42873</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>4</v>
       </c>
       <c r="C17" t="s">
@@ -586,7 +602,7 @@
       <c r="A18" s="1">
         <v>42874</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>3</v>
       </c>
       <c r="C18" t="s">
@@ -597,69 +613,103 @@
       <c r="A19" s="1">
         <v>42875</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>42876</v>
       </c>
+      <c r="B20" s="2"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>42877</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
         <v>3.5</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>42878</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2">
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>42879</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>42880</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="2">
         <v>4.5</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>42881</v>
+      </c>
+      <c r="B25" s="2">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="A26" s="1">
+        <v>42882</v>
+      </c>
+      <c r="B26" s="2">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>42883</v>
+      </c>
+      <c r="B27" s="2">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>14</v>
       </c>
-      <c r="B26">
-        <f>SUM(B2:B24)</f>
-        <v>41.5</v>
+      <c r="B32" s="2">
+        <f>SUM(B2:B31)</f>
+        <v>58.5</v>
       </c>
     </row>
   </sheetData>
